--- a/Bills/Adish_Talim_Aradhya.xlsx
+++ b/Bills/Adish_Talim_Aradhya.xlsx
@@ -1502,7 +1502,7 @@
       </c>
       <c r="G12" s="37" t="inlineStr">
         <is>
-          <t>27-02-2026</t>
+          <t>28-02-2026</t>
         </is>
       </c>
       <c r="H12" s="38" t="n"/>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="G13" s="69" t="inlineStr">
         <is>
-          <t>02-03-2026</t>
+          <t>03-03-2026</t>
         </is>
       </c>
       <c r="H13" s="70" t="n"/>

--- a/Bills/Adish_Talim_Aradhya.xlsx
+++ b/Bills/Adish_Talim_Aradhya.xlsx
@@ -1940,7 +1940,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1972,7 +1972,6 @@
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
     <col width="18" customWidth="1" min="24" max="24"/>
-    <col width="18" customWidth="1" min="25" max="25"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -1983,122 +1982,117 @@
       </c>
       <c r="B1" s="117" t="inlineStr">
         <is>
-          <t>Working At</t>
+          <t>Employee Code</t>
         </is>
       </c>
       <c r="C1" s="117" t="inlineStr">
         <is>
-          <t>Employee Code</t>
+          <t>Employee Name</t>
         </is>
       </c>
       <c r="D1" s="117" t="inlineStr">
         <is>
-          <t>Employee Name</t>
+          <t>Billing</t>
         </is>
       </c>
       <c r="E1" s="117" t="inlineStr">
         <is>
-          <t>Billing</t>
+          <t>No of days</t>
         </is>
       </c>
       <c r="F1" s="117" t="inlineStr">
         <is>
-          <t>No of days</t>
+          <t>Eligible Days</t>
         </is>
       </c>
       <c r="G1" s="117" t="inlineStr">
         <is>
-          <t>Eligible Days</t>
+          <t>No of Saturdays</t>
         </is>
       </c>
       <c r="H1" s="117" t="inlineStr">
         <is>
-          <t>No of Saturdays</t>
+          <t>No of Sundays</t>
         </is>
       </c>
       <c r="I1" s="117" t="inlineStr">
         <is>
-          <t>No of Sundays</t>
+          <t>No of Holidays</t>
         </is>
       </c>
       <c r="J1" s="117" t="inlineStr">
         <is>
-          <t>No of Holidays</t>
+          <t>Total Present</t>
         </is>
       </c>
       <c r="K1" s="117" t="inlineStr">
         <is>
-          <t>Total Present</t>
+          <t>Total Working Days</t>
         </is>
       </c>
       <c r="L1" s="117" t="inlineStr">
         <is>
-          <t>Total Working Days</t>
+          <t>Absents this Month</t>
         </is>
       </c>
       <c r="M1" s="117" t="inlineStr">
         <is>
-          <t>Absents this Month</t>
+          <t>Adjustment of Days</t>
         </is>
       </c>
       <c r="N1" s="117" t="inlineStr">
         <is>
-          <t>Adjustment of Days</t>
+          <t>Total Payable Days</t>
         </is>
       </c>
       <c r="O1" s="117" t="inlineStr">
         <is>
-          <t>Total Payable Days</t>
+          <t>Total Payable Billing</t>
         </is>
       </c>
       <c r="P1" s="117" t="inlineStr">
         <is>
-          <t>Total Payable Billing</t>
+          <t>Charges</t>
         </is>
       </c>
       <c r="Q1" s="117" t="inlineStr">
         <is>
-          <t>Charges</t>
+          <t>Out of Pocket Exp</t>
         </is>
       </c>
       <c r="R1" s="117" t="inlineStr">
         <is>
-          <t>Out of Pocket Exp</t>
+          <t>Arrears</t>
         </is>
       </c>
       <c r="S1" s="117" t="inlineStr">
         <is>
-          <t>Arrears</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="T1" s="117" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Grand Total</t>
         </is>
       </c>
       <c r="U1" s="117" t="inlineStr">
         <is>
+          <t>Remark</t>
+        </is>
+      </c>
+      <c r="V1" s="117" t="inlineStr">
+        <is>
           <t>CGST @9%</t>
         </is>
       </c>
-      <c r="V1" s="117" t="inlineStr">
+      <c r="W1" s="117" t="inlineStr">
         <is>
           <t>SGST @9%</t>
         </is>
       </c>
-      <c r="W1" s="117" t="inlineStr">
+      <c r="X1" s="117" t="inlineStr">
         <is>
           <t>IGST @18%</t>
-        </is>
-      </c>
-      <c r="X1" s="117" t="inlineStr">
-        <is>
-          <t>Grand Total</t>
-        </is>
-      </c>
-      <c r="Y1" s="117" t="inlineStr">
-        <is>
-          <t>Remark</t>
         </is>
       </c>
     </row>
@@ -2110,80 +2104,75 @@
       </c>
       <c r="B2" s="118" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>AR-10136</t>
         </is>
       </c>
       <c r="C2" s="118" t="inlineStr">
         <is>
-          <t>AR-10136</t>
-        </is>
-      </c>
-      <c r="D2" s="118" t="inlineStr">
-        <is>
           <t>ABHINANDAN JITENDRA SINGH</t>
         </is>
       </c>
+      <c r="D2" s="118" t="n">
+        <v>45154</v>
+      </c>
       <c r="E2" s="118" t="n">
-        <v>45154</v>
+        <v>31</v>
       </c>
       <c r="F2" s="118" t="n">
         <v>31</v>
       </c>
       <c r="G2" s="118" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H2" s="118" t="n">
         <v>4</v>
       </c>
       <c r="I2" s="118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" s="118" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K2" s="118" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L2" s="118" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M2" s="118" t="n">
         <v>0</v>
       </c>
       <c r="N2" s="118" t="n">
+        <v>31</v>
+      </c>
+      <c r="O2" s="118" t="n">
+        <v>45154</v>
+      </c>
+      <c r="P2" s="118" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q2" s="118" t="n">
         <v>0</v>
-      </c>
-      <c r="O2" s="118" t="n">
-        <v>31</v>
-      </c>
-      <c r="P2" s="118" t="n">
-        <v>45154</v>
-      </c>
-      <c r="Q2" s="118" t="n">
-        <v>750</v>
       </c>
       <c r="R2" s="118" t="n">
         <v>0</v>
       </c>
       <c r="S2" s="118" t="n">
-        <v>0</v>
+        <v>45904</v>
       </c>
       <c r="T2" s="118" t="n">
-        <v>45904</v>
+        <v>54166.72</v>
       </c>
       <c r="U2" s="118" t="n">
-        <v>4131.36</v>
+        <v/>
       </c>
       <c r="V2" s="118" t="n">
         <v>4131.36</v>
       </c>
       <c r="W2" s="118" t="n">
-        <v>0</v>
+        <v>4131.36</v>
       </c>
       <c r="X2" s="118" t="n">
-        <v>54166.72</v>
-      </c>
-      <c r="Y2" s="118" t="n">
         <v/>
       </c>
     </row>
@@ -2195,80 +2184,75 @@
       </c>
       <c r="B3" s="118" t="inlineStr">
         <is>
-          <t>Reliance Industries Ltd</t>
+          <t>AR-10145</t>
         </is>
       </c>
       <c r="C3" s="118" t="inlineStr">
         <is>
-          <t>AR-10145</t>
-        </is>
-      </c>
-      <c r="D3" s="118" t="inlineStr">
-        <is>
           <t>ASHISH BANSHIDHAR RAI</t>
         </is>
       </c>
+      <c r="D3" s="118" t="n">
+        <v>44993</v>
+      </c>
       <c r="E3" s="118" t="n">
-        <v>44993</v>
+        <v>31</v>
       </c>
       <c r="F3" s="118" t="n">
         <v>31</v>
       </c>
       <c r="G3" s="118" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="H3" s="118" t="n">
         <v>4</v>
       </c>
       <c r="I3" s="118" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" s="118" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="K3" s="118" t="n">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L3" s="118" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="M3" s="118" t="n">
         <v>0</v>
       </c>
       <c r="N3" s="118" t="n">
+        <v>31</v>
+      </c>
+      <c r="O3" s="118" t="n">
+        <v>44993</v>
+      </c>
+      <c r="P3" s="118" t="n">
+        <v>750</v>
+      </c>
+      <c r="Q3" s="118" t="n">
         <v>0</v>
-      </c>
-      <c r="O3" s="118" t="n">
-        <v>31</v>
-      </c>
-      <c r="P3" s="118" t="n">
-        <v>44993</v>
-      </c>
-      <c r="Q3" s="118" t="n">
-        <v>750</v>
       </c>
       <c r="R3" s="118" t="n">
         <v>0</v>
       </c>
       <c r="S3" s="118" t="n">
-        <v>0</v>
+        <v>45743</v>
       </c>
       <c r="T3" s="118" t="n">
-        <v>45743</v>
+        <v>53976.74</v>
       </c>
       <c r="U3" s="118" t="n">
-        <v>4116.87</v>
+        <v/>
       </c>
       <c r="V3" s="118" t="n">
         <v>4116.87</v>
       </c>
       <c r="W3" s="118" t="n">
-        <v>0</v>
+        <v>4116.87</v>
       </c>
       <c r="X3" s="118" t="n">
-        <v>53976.74</v>
-      </c>
-      <c r="Y3" s="118" t="n">
         <v/>
       </c>
     </row>
@@ -2280,7 +2264,10 @@
       </c>
       <c r="B4" s="119" t="n"/>
       <c r="C4" s="119" t="n"/>
-      <c r="D4" s="119" t="n"/>
+      <c r="D4" s="119">
+        <f>ROUND(SUM(D2:D3), 0)</f>
+        <v/>
+      </c>
       <c r="E4" s="119">
         <f>ROUND(SUM(E2:E3), 0)</f>
         <v/>
@@ -2342,26 +2329,22 @@
         <v/>
       </c>
       <c r="T4" s="119">
-        <f>ROUND(SUM(T2:T3), 0)</f>
+        <f>ROUND(SUM(S4), 0)</f>
         <v/>
       </c>
-      <c r="U4" s="119">
-        <f>CEILING(SUM(U2:U3), 1)</f>
-        <v/>
-      </c>
+      <c r="U4" s="119" t="n"/>
       <c r="V4" s="119">
         <f>CEILING(SUM(V2:V3), 1)</f>
         <v/>
       </c>
       <c r="W4" s="119">
-        <f>ROUND(SUM(W2:W3), 0)</f>
+        <f>CEILING(SUM(W2:W3), 1)</f>
         <v/>
       </c>
       <c r="X4" s="119">
-        <f>ROUND(SUM(T4,U4,V4,W4), 0)</f>
+        <f>ROUND(SUM(X2:X3), 0)</f>
         <v/>
       </c>
-      <c r="Y4" s="119" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Bills/Adish_Talim_Aradhya.xlsx
+++ b/Bills/Adish_Talim_Aradhya.xlsx
@@ -552,7 +552,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -832,7 +832,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="33" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="4" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1619,7 +1623,7 @@
       <c r="F21" s="109" t="n"/>
       <c r="G21" s="110" t="n"/>
       <c r="H21" s="111" t="n">
-        <v>8248</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="22" ht="16.2" customHeight="1" thickBot="1">
@@ -1635,13 +1639,13 @@
       <c r="F22" s="109" t="n"/>
       <c r="G22" s="110" t="n"/>
       <c r="H22" s="112" t="n">
-        <v>8248</v>
+        <v>8249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="25" t="n"/>
       <c r="H23" s="113" t="n">
-        <v>108143</v>
+        <v>108145</v>
       </c>
     </row>
     <row r="24" ht="15.6" customHeight="1">
@@ -1652,7 +1656,7 @@
       </c>
       <c r="B24" s="27" t="inlineStr">
         <is>
-          <t>One Lakh, Eight Thousand, One Hundred And Forty-Three Only</t>
+          <t>One Lakh, Eight Thousand, One Hundred And Forty-Five Only</t>
         </is>
       </c>
       <c r="H24" s="107" t="n"/>
@@ -1940,7 +1944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1971,7 +1975,6 @@
     <col width="18" customWidth="1" min="21" max="21"/>
     <col width="18" customWidth="1" min="22" max="22"/>
     <col width="18" customWidth="1" min="23" max="23"/>
-    <col width="18" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1">
@@ -2072,27 +2075,22 @@
       </c>
       <c r="T1" s="117" t="inlineStr">
         <is>
+          <t>CGST @9%</t>
+        </is>
+      </c>
+      <c r="U1" s="117" t="inlineStr">
+        <is>
+          <t>SGST @9%</t>
+        </is>
+      </c>
+      <c r="V1" s="117" t="inlineStr">
+        <is>
           <t>Grand Total</t>
         </is>
       </c>
-      <c r="U1" s="117" t="inlineStr">
+      <c r="W1" s="117" t="inlineStr">
         <is>
           <t>Remark</t>
-        </is>
-      </c>
-      <c r="V1" s="117" t="inlineStr">
-        <is>
-          <t>CGST @9%</t>
-        </is>
-      </c>
-      <c r="W1" s="117" t="inlineStr">
-        <is>
-          <t>SGST @9%</t>
-        </is>
-      </c>
-      <c r="X1" s="117" t="inlineStr">
-        <is>
-          <t>IGST @18%</t>
         </is>
       </c>
     </row>
@@ -2112,67 +2110,64 @@
           <t>ABHINANDAN JITENDRA SINGH</t>
         </is>
       </c>
-      <c r="D2" s="118" t="n">
+      <c r="D2" s="119" t="n">
         <v>45154</v>
       </c>
-      <c r="E2" s="118" t="n">
+      <c r="E2" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="F2" s="118" t="n">
+      <c r="F2" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="G2" s="118" t="n">
+      <c r="G2" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="118" t="n">
+      <c r="H2" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="118" t="n">
+      <c r="I2" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="118" t="n">
+      <c r="J2" s="119" t="n">
         <v>22</v>
       </c>
-      <c r="K2" s="118" t="n">
+      <c r="K2" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="L2" s="118" t="n">
+      <c r="L2" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="118" t="n">
+      <c r="M2" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="118" t="n">
+      <c r="N2" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="O2" s="118" t="n">
+      <c r="O2" s="119" t="n">
         <v>45154</v>
       </c>
-      <c r="P2" s="118" t="n">
+      <c r="P2" s="119" t="n">
         <v>750</v>
       </c>
-      <c r="Q2" s="118" t="n">
+      <c r="Q2" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="R2" s="118" t="n">
+      <c r="R2" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="S2" s="118" t="n">
+      <c r="S2" s="119" t="n">
         <v>45904</v>
       </c>
-      <c r="T2" s="118" t="n">
+      <c r="T2" s="119" t="n">
+        <v>4131.36</v>
+      </c>
+      <c r="U2" s="119" t="n">
+        <v>4131.36</v>
+      </c>
+      <c r="V2" s="119" t="n">
         <v>54166.72</v>
       </c>
-      <c r="U2" s="118" t="n">
-        <v/>
-      </c>
-      <c r="V2" s="118" t="n">
-        <v>4131.36</v>
-      </c>
       <c r="W2" s="118" t="n">
-        <v>4131.36</v>
-      </c>
-      <c r="X2" s="118" t="n">
         <v/>
       </c>
     </row>
@@ -2192,159 +2187,152 @@
           <t>ASHISH BANSHIDHAR RAI</t>
         </is>
       </c>
-      <c r="D3" s="118" t="n">
+      <c r="D3" s="119" t="n">
         <v>44993</v>
       </c>
-      <c r="E3" s="118" t="n">
+      <c r="E3" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="F3" s="118" t="n">
+      <c r="F3" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="G3" s="118" t="n">
+      <c r="G3" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="H3" s="118" t="n">
+      <c r="H3" s="119" t="n">
         <v>4</v>
       </c>
-      <c r="I3" s="118" t="n">
+      <c r="I3" s="119" t="n">
         <v>1</v>
       </c>
-      <c r="J3" s="118" t="n">
+      <c r="J3" s="119" t="n">
         <v>22</v>
       </c>
-      <c r="K3" s="118" t="n">
+      <c r="K3" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="L3" s="118" t="n">
+      <c r="L3" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="118" t="n">
+      <c r="M3" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="118" t="n">
+      <c r="N3" s="119" t="n">
         <v>31</v>
       </c>
-      <c r="O3" s="118" t="n">
+      <c r="O3" s="119" t="n">
         <v>44993</v>
       </c>
-      <c r="P3" s="118" t="n">
+      <c r="P3" s="119" t="n">
         <v>750</v>
       </c>
-      <c r="Q3" s="118" t="n">
+      <c r="Q3" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="R3" s="118" t="n">
+      <c r="R3" s="119" t="n">
         <v>0</v>
       </c>
-      <c r="S3" s="118" t="n">
+      <c r="S3" s="119" t="n">
         <v>45743</v>
       </c>
-      <c r="T3" s="118" t="n">
+      <c r="T3" s="119" t="n">
+        <v>4116.87</v>
+      </c>
+      <c r="U3" s="119" t="n">
+        <v>4116.87</v>
+      </c>
+      <c r="V3" s="119" t="n">
         <v>53976.74</v>
       </c>
-      <c r="U3" s="118" t="n">
+      <c r="W3" s="118" t="n">
         <v/>
       </c>
-      <c r="V3" s="118" t="n">
-        <v>4116.87</v>
-      </c>
-      <c r="W3" s="118" t="n">
-        <v>4116.87</v>
-      </c>
-      <c r="X3" s="118" t="n">
-        <v/>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" s="119" t="inlineStr">
+      <c r="A4" s="120" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="B4" s="119" t="n"/>
-      <c r="C4" s="119" t="n"/>
-      <c r="D4" s="119">
+      <c r="B4" s="120" t="n"/>
+      <c r="C4" s="120" t="n"/>
+      <c r="D4" s="121">
         <f>ROUND(SUM(D2:D3), 0)</f>
         <v/>
       </c>
-      <c r="E4" s="119">
+      <c r="E4" s="121">
         <f>ROUND(SUM(E2:E3), 0)</f>
         <v/>
       </c>
-      <c r="F4" s="119">
+      <c r="F4" s="121">
         <f>ROUND(SUM(F2:F3), 0)</f>
         <v/>
       </c>
-      <c r="G4" s="119">
+      <c r="G4" s="121">
         <f>ROUND(SUM(G2:G3), 0)</f>
         <v/>
       </c>
-      <c r="H4" s="119">
+      <c r="H4" s="121">
         <f>ROUND(SUM(H2:H3), 0)</f>
         <v/>
       </c>
-      <c r="I4" s="119">
+      <c r="I4" s="121">
         <f>ROUND(SUM(I2:I3), 0)</f>
         <v/>
       </c>
-      <c r="J4" s="119">
+      <c r="J4" s="121">
         <f>ROUND(SUM(J2:J3), 0)</f>
         <v/>
       </c>
-      <c r="K4" s="119">
+      <c r="K4" s="121">
         <f>ROUND(SUM(K2:K3), 0)</f>
         <v/>
       </c>
-      <c r="L4" s="119">
+      <c r="L4" s="121">
         <f>ROUND(SUM(L2:L3), 0)</f>
         <v/>
       </c>
-      <c r="M4" s="119">
+      <c r="M4" s="121">
         <f>ROUND(SUM(M2:M3), 0)</f>
         <v/>
       </c>
-      <c r="N4" s="119">
+      <c r="N4" s="121">
         <f>ROUND(SUM(N2:N3), 0)</f>
         <v/>
       </c>
-      <c r="O4" s="119">
+      <c r="O4" s="121">
         <f>ROUND(SUM(O2:O3), 0)</f>
         <v/>
       </c>
-      <c r="P4" s="119">
+      <c r="P4" s="121">
         <f>ROUND(SUM(P2:P3), 0)</f>
         <v/>
       </c>
-      <c r="Q4" s="119">
+      <c r="Q4" s="121">
         <f>ROUND(SUM(Q2:Q3), 0)</f>
         <v/>
       </c>
-      <c r="R4" s="119">
+      <c r="R4" s="121">
         <f>ROUND(SUM(R2:R3), 0)</f>
         <v/>
       </c>
-      <c r="S4" s="119">
+      <c r="S4" s="121">
         <f>ROUND(SUM(S2:S3), 0)</f>
         <v/>
       </c>
-      <c r="T4" s="119">
-        <f>ROUND(SUM(S4), 0)</f>
+      <c r="T4" s="121">
+        <f>CEILING(SUM(T2:T3), 1)</f>
         <v/>
       </c>
-      <c r="U4" s="119" t="n"/>
-      <c r="V4" s="119">
-        <f>CEILING(SUM(V2:V3), 1)</f>
+      <c r="U4" s="121">
+        <f>CEILING(SUM(U2:U3), 1)</f>
         <v/>
       </c>
-      <c r="W4" s="119">
-        <f>CEILING(SUM(W2:W3), 1)</f>
+      <c r="V4" s="121">
+        <f>ROUND(SUM(S4,T4,U4), 0)</f>
         <v/>
       </c>
-      <c r="X4" s="119">
-        <f>ROUND(SUM(X2:X3), 0)</f>
-        <v/>
-      </c>
+      <c r="W4" s="120" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
